--- a/input_files/SP_Decision_Sheet_Dummy.xlsx
+++ b/input_files/SP_Decision_Sheet_Dummy.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21540" windowHeight="8700"/>
+    <workbookView windowWidth="28230" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$10</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
   <si>
     <t>Decision Log By</t>
   </si>
@@ -91,6 +91,9 @@
     <t>V : PA-Read</t>
   </si>
   <si>
+    <t>user3</t>
+  </si>
+  <si>
     <t>P : PB-Admin</t>
   </si>
   <si>
@@ -98,9 +101,6 @@
   </si>
   <si>
     <t>U : PB-Write</t>
-  </si>
-  <si>
-    <t>user3</t>
   </si>
 </sst>
 </file>
@@ -108,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -138,6 +138,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -145,9 +168,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,114 +258,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,187 +283,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,16 +477,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -496,7 +516,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,21 +532,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,28 +554,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,142 +579,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1056,10 +1056,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1267,13 +1267,13 @@
         <v>11111111</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
@@ -1282,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>17</v>
@@ -1302,10 +1302,10 @@
         <v>11111111</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>25</v>
@@ -1317,7 +1317,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>17</v>
@@ -1337,10 +1337,10 @@
         <v>11111111</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>26</v>
@@ -1352,7 +1352,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>17</v>
@@ -1372,13 +1372,13 @@
         <v>11111111</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
@@ -1387,9 +1387,79 @@
         <v>15</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>10000001</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
+        <v>10000001</v>
+      </c>
+      <c r="B11" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
